--- a/allRoutes.xlsx
+++ b/allRoutes.xlsx
@@ -148,7 +148,7 @@
   <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -175,7 +175,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>105.9</v>
@@ -190,7 +190,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>167.3</v>
@@ -208,7 +208,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>145.9</v>
@@ -226,7 +226,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>107</v>
@@ -244,7 +244,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>112.1</v>

--- a/allRoutes.xlsx
+++ b/allRoutes.xlsx
@@ -145,13 +145,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -167,33 +167,51 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>7774</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>7774</v>
+        <v>7773</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>105.9</v>
+        <v>167.3</v>
       </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>7773</v>
+        <v>7772</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>167.3</v>
+        <v>145.9</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -202,16 +220,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>7772</v>
+        <v>7771</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>145.9</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -220,16 +238,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>7771</v>
+        <v>7072</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>107</v>
+        <v>112.1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -237,24 +255,16 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>7072</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>112.1</v>
-      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -577,7 +587,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,7 +606,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
     </row>
@@ -606,8 +616,8 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,7 +657,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +677,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,7 +1966,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
@@ -1966,7 +1976,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="2"/>
+      <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
@@ -2056,7 +2066,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="G188" s="2"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
@@ -2066,7 +2076,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="2"/>
+      <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
@@ -2347,7 +2357,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
+      <c r="H217" s="2"/>
       <c r="I217" s="1"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,7 +2367,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="2"/>
+      <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,7 +2377,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
+      <c r="H219" s="2"/>
       <c r="I219" s="1"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,7 +2397,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="2"/>
+      <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,7 +2407,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
+      <c r="H222" s="2"/>
       <c r="I222" s="1"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2417,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="2"/>
+      <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,7 +2576,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
+      <c r="G239" s="2"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
@@ -2576,7 +2586,7 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="2"/>
+      <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
@@ -3030,16 +3040,7 @@
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="1"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
